--- a/Documents/Meeting Notes and Attendance/Notule.xlsx
+++ b/Documents/Meeting Notes and Attendance/Notule.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finle\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MA-Mock-Exam\Documents\Meeting Notes and Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2B889A-CB62-4D06-8DA5-649FE040DB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE211DE1-0888-47F4-91CA-20F5143D7DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheid" sheetId="2" r:id="rId1"/>
     <sheet name="Taken" sheetId="3" r:id="rId2"/>
-    <sheet name="Rolverdeling" sheetId="4" r:id="rId3"/>
+    <sheet name="Afspraken meeting communicatie" sheetId="5" r:id="rId3"/>
+    <sheet name="Meeting donderdag 23" sheetId="6" r:id="rId4"/>
+    <sheet name="Rolverdeling" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Finley Murronmaa</t>
   </si>
@@ -171,6 +173,45 @@
   </si>
   <si>
     <t>AR werkende in Unity krijgen</t>
+  </si>
+  <si>
+    <t>Op 22 februari hebben wij als team met Erwin erbij een gesprek gehad over communicatie. Hierbij zijn een aantal afspraken gemaakt:</t>
+  </si>
+  <si>
+    <t>Wij houden elke dag om 9 uur een standup waarbij wij zeggen wat wij gaan doen.</t>
+  </si>
+  <si>
+    <t>Als er een speciaal onderwerp besproken wordt wordt dit 1 dag van tevoren aangegeven.</t>
+  </si>
+  <si>
+    <t>Als iemand niet aanwezig kan zijn geeft hij dit 1 uur van tevoren aan, maar hoeft geen reden aan te geven. Wel moet hij aangeven wat hij die dag gaat doen, maar ook wat hij wil bijdragen bij eventuele discussies over de speciale onderwerpen.</t>
+  </si>
+  <si>
+    <t>Werk wordt altijd opgeslagen in de github folders en aan het einde van de dag wordt alles geupload naar github.</t>
+  </si>
+  <si>
+    <t>Iedereen kan altijd naar Ingmar komen voor hulp met github.</t>
+  </si>
+  <si>
+    <t>Iedereen houd zijn eigen To-Do's bij binnen de Trello. Als een taak is afgerond gaat die naar "under review". Daarna moet een ander teamlid de taak goedkeuren voordat hij "af" is.</t>
+  </si>
+  <si>
+    <t>Als iemand moeite heeft met taken uitschrijven kan hij altijd naar Ingmar komen voor hulp.</t>
+  </si>
+  <si>
+    <t>Zolang al het werk af is en op github staat maakt het niet uit hoe lang iemand werkt.</t>
+  </si>
+  <si>
+    <t>Afspraken preciese tijd meetings</t>
+  </si>
+  <si>
+    <t>Afspraken wie de presentatie maakt</t>
+  </si>
+  <si>
+    <t>Artist werk uploaden naar github</t>
+  </si>
+  <si>
+    <t>Dubbel check trello To-Do's</t>
   </si>
 </sst>
 </file>
@@ -626,12 +667,12 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="24.140625" customWidth="1"/>
+    <col min="1" max="7" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
@@ -651,7 +692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>44971</v>
       </c>
@@ -682,7 +723,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>44972</v>
       </c>
@@ -693,7 +734,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>44973</v>
       </c>
@@ -704,7 +745,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>44974</v>
       </c>
@@ -715,7 +756,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>44975</v>
       </c>
@@ -726,7 +767,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>44976</v>
       </c>
@@ -737,7 +778,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>44977</v>
       </c>
@@ -748,7 +789,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>44978</v>
       </c>
@@ -759,7 +800,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>44979</v>
       </c>
@@ -770,12 +811,12 @@
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>44980</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>44981</v>
       </c>
@@ -789,18 +830,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D992D6CD-93E1-46BF-BF20-7DA4DA17863B}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="7" width="43.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="7" width="43.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -823,8 +864,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>44971</v>
       </c>
@@ -847,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>44972</v>
       </c>
@@ -870,7 +911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>44973</v>
       </c>
@@ -893,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>44974</v>
       </c>
@@ -916,7 +957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>44975</v>
       </c>
@@ -927,7 +968,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>44976</v>
       </c>
@@ -938,7 +979,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>44977</v>
       </c>
@@ -961,7 +1002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>44978</v>
       </c>
@@ -976,7 +1017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>44979</v>
       </c>
@@ -999,7 +1040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>44980</v>
       </c>
@@ -1016,34 +1057,34 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>44981</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1051,6 +1092,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74A919-15CE-4936-9774-72C77A6A3F9D}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CACC994-8263-4AA1-A0C8-191A3A8A9943}">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92FD14C-C1E5-4A26-AA29-40029CD9C573}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1058,12 +1194,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="25.85546875" customWidth="1"/>
+    <col min="1" max="8" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -1106,9 +1242,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Meeting Notes and Attendance/Notule.xlsx
+++ b/Documents/Meeting Notes and Attendance/Notule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MA-Mock-Exam\Documents\Meeting Notes and Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE211DE1-0888-47F4-91CA-20F5143D7DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECA6377-F037-41A7-B596-E2737FD1BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheid" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Finley Murronmaa</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Dubbel check trello To-Do's</t>
+  </si>
+  <si>
+    <t>Het team neemt het werk van Olaf over voor sprint 1 vanwege zijn persoonlijke situatie.</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74A919-15CE-4936-9774-72C77A6A3F9D}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,6 +1147,11 @@
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CACC994-8263-4AA1-A0C8-191A3A8A9943}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Meeting Notes and Attendance/Notule.xlsx
+++ b/Documents/Meeting Notes and Attendance/Notule.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MA-Mock-Exam\Documents\Meeting Notes and Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_ForceOfTanks\MA-Mock-Exam\Documents\Meeting Notes and Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECA6377-F037-41A7-B596-E2737FD1BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30005FF6-2A2C-4B5B-B122-149E4B89C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheid" sheetId="2" r:id="rId1"/>
     <sheet name="Taken" sheetId="3" r:id="rId2"/>
-    <sheet name="Afspraken meeting communicatie" sheetId="5" r:id="rId3"/>
-    <sheet name="Meeting donderdag 23" sheetId="6" r:id="rId4"/>
+    <sheet name="Meetings" sheetId="6" r:id="rId3"/>
+    <sheet name="Afspraken meeting communicatie" sheetId="5" r:id="rId4"/>
     <sheet name="Rolverdeling" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>Finley Murronmaa</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Schetsen afronden</t>
   </si>
   <si>
-    <t>Blockout afmaken</t>
-  </si>
-  <si>
     <t>Individuele taken afronden en beginnen schetsen</t>
   </si>
   <si>
@@ -202,26 +199,53 @@
     <t>Zolang al het werk af is en op github staat maakt het niet uit hoe lang iemand werkt.</t>
   </si>
   <si>
-    <t>Afspraken preciese tijd meetings</t>
-  </si>
-  <si>
-    <t>Afspraken wie de presentatie maakt</t>
-  </si>
-  <si>
-    <t>Artist werk uploaden naar github</t>
-  </si>
-  <si>
-    <t>Dubbel check trello To-Do's</t>
-  </si>
-  <si>
     <t>Het team neemt het werk van Olaf over voor sprint 1 vanwege zijn persoonlijke situatie.</t>
+  </si>
+  <si>
+    <t>Blockout afmaken, OnePage en Keuzeprocess</t>
+  </si>
+  <si>
+    <t>OnePage en Keuzeprocess</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Gesproken:</t>
+  </si>
+  <si>
+    <t>ma-woe-do-vrij: 09:30</t>
+  </si>
+  <si>
+    <t>di:                             11:00</t>
+  </si>
+  <si>
+    <t>Afspraken preciese tijd meetings:</t>
+  </si>
+  <si>
+    <t>Afspraken van de presentatie:</t>
+  </si>
+  <si>
+    <t>Artist werk uploaden naar github:</t>
+  </si>
+  <si>
+    <t>Dubbel check trello To-Do's:</t>
+  </si>
+  <si>
+    <t>Reily: Maakt presentaite</t>
+  </si>
+  <si>
+    <t>Ingmar: Presenteert</t>
+  </si>
+  <si>
+    <t>Misha: Presenteert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +283,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +340,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -322,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +382,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -667,15 +708,15 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="24.109375" customWidth="1"/>
+    <col min="1" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
@@ -695,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -715,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44971</v>
       </c>
@@ -726,7 +767,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44972</v>
       </c>
@@ -737,7 +778,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44973</v>
       </c>
@@ -748,7 +789,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44974</v>
       </c>
@@ -759,7 +800,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44975</v>
       </c>
@@ -770,7 +811,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44976</v>
       </c>
@@ -781,18 +822,18 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44977</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="17"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44978</v>
       </c>
@@ -803,23 +844,29 @@
       <c r="F11" s="13"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44979</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="6"/>
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44980</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44981</v>
       </c>
@@ -834,17 +881,17 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="7" width="43.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -867,8 +914,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44971</v>
       </c>
@@ -891,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44972</v>
       </c>
@@ -914,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44973</v>
       </c>
@@ -937,30 +984,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44974</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44975</v>
       </c>
@@ -971,7 +1018,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44976</v>
       </c>
@@ -982,7 +1029,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44977</v>
       </c>
@@ -999,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44978</v>
       </c>
@@ -1014,18 +1061,18 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44979</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1037,57 +1084,57 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44980</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44981</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1095,64 +1142,178 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74A919-15CE-4936-9774-72C77A6A3F9D}">
-  <dimension ref="A1:A14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CACC994-8263-4AA1-A0C8-191A3A8A9943}">
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>44980</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1160,33 +1321,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CACC994-8263-4AA1-A0C8-191A3A8A9943}">
-  <dimension ref="A2:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74A919-15CE-4936-9774-72C77A6A3F9D}">
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1202,12 +1393,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="25.88671875" customWidth="1"/>
+    <col min="1" max="8" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -1250,9 +1441,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Meeting Notes and Attendance/Notule.xlsx
+++ b/Documents/Meeting Notes and Attendance/Notule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_ForceOfTanks\MA-Mock-Exam\Documents\Meeting Notes and Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MA-Mock-Exam\Documents\Meeting Notes and Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30005FF6-2A2C-4B5B-B122-149E4B89C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F9FAC5-8B14-4DD6-9F32-D41CC2392E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheid" sheetId="2" r:id="rId1"/>
@@ -359,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -386,6 +386,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -705,18 +708,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF031C3-D4FF-4FB5-9E98-A7E574A3A60A}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="24.140625" customWidth="1"/>
+    <col min="1" max="7" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
@@ -736,7 +739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>44971</v>
       </c>
@@ -767,7 +770,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>44972</v>
       </c>
@@ -778,7 +781,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>44973</v>
       </c>
@@ -789,7 +792,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>44974</v>
       </c>
@@ -800,7 +803,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>44975</v>
       </c>
@@ -811,7 +814,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>44976</v>
       </c>
@@ -822,7 +825,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>44977</v>
       </c>
@@ -833,7 +836,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>44978</v>
       </c>
@@ -844,7 +847,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>44979</v>
       </c>
@@ -855,7 +858,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>44980</v>
       </c>
@@ -866,10 +869,27 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>44981</v>
       </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>44991</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -884,14 +904,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="7" width="43.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="7" width="43.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -914,8 +934,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>44971</v>
       </c>
@@ -938,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>44972</v>
       </c>
@@ -961,7 +981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>44973</v>
       </c>
@@ -984,7 +1004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>44974</v>
       </c>
@@ -1007,7 +1027,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>44975</v>
       </c>
@@ -1018,7 +1038,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>44976</v>
       </c>
@@ -1029,7 +1049,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>44977</v>
       </c>
@@ -1052,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>44978</v>
       </c>
@@ -1067,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>44979</v>
       </c>
@@ -1090,7 +1110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>44980</v>
       </c>
@@ -1107,34 +1127,34 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>44981</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1145,17 +1165,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CACC994-8263-4AA1-A0C8-191A3A8A9943}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
@@ -1163,7 +1183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23">
         <v>44980</v>
       </c>
@@ -1180,7 +1200,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>51</v>
@@ -1189,7 +1209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>52</v>
@@ -1198,121 +1218,121 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="F5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="22"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
     </row>
   </sheetData>
@@ -1328,54 +1348,54 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1393,12 +1413,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="25.85546875" customWidth="1"/>
+    <col min="1" max="8" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -1441,9 +1461,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Meeting Notes and Attendance/Notule.xlsx
+++ b/Documents/Meeting Notes and Attendance/Notule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MA-Mock-Exam\Documents\Meeting Notes and Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F9FAC5-8B14-4DD6-9F32-D41CC2392E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47385351-9B37-492E-BF17-DE5D316D48C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
   </bookViews>
@@ -708,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF031C3-D4FF-4FB5-9E98-A7E574A3A60A}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,6 +890,50 @@
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>44992</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>44993</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>44994</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>44995</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Meeting Notes and Attendance/Notule.xlsx
+++ b/Documents/Meeting Notes and Attendance/Notule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\MA-Mock-Exam\Documents\Meeting Notes and Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_ForceOfTanks\MA-Mock-Exam\Documents\Meeting Notes and Attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47385351-9B37-492E-BF17-DE5D316D48C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2AD9B7-6230-4B63-9FAF-5C8B53A2EFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{7D3D95EC-E2A0-4ADB-83B4-1C92AA0F1E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheid" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
   <si>
     <t>Finley Murronmaa</t>
   </si>
@@ -239,6 +239,99 @@
   </si>
   <si>
     <t>Misha: Presenteert</t>
+  </si>
+  <si>
+    <t>Presentatie</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Veluwe</t>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
+    <t>Combine and Import</t>
+  </si>
+  <si>
+    <t>Fix Normals and Opacity</t>
+  </si>
+  <si>
+    <t>Voetstappen</t>
+  </si>
+  <si>
+    <t>Art Verhaal</t>
+  </si>
+  <si>
+    <t>Trailer</t>
+  </si>
+  <si>
+    <t>Final imports</t>
+  </si>
+  <si>
+    <t>Finishing up</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>UI concepten verder werken</t>
+  </si>
+  <si>
+    <t>Final Imports</t>
+  </si>
+  <si>
+    <t>Finishing up + Renders</t>
+  </si>
+  <si>
+    <t>Final touch and Presentation + Renders</t>
+  </si>
+  <si>
+    <t>Retopologize</t>
+  </si>
+  <si>
+    <t>Normal Brush Bake and make</t>
+  </si>
+  <si>
+    <t>Normal Brush Add Model</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui import </t>
+  </si>
+  <si>
+    <t>Finishing touches</t>
+  </si>
+  <si>
+    <t>Render and finisching touches</t>
+  </si>
+  <si>
+    <t>Help UI Fixing and color grading addition</t>
+  </si>
+  <si>
+    <t>UI Layout</t>
+  </si>
+  <si>
+    <t>Route implementeren</t>
+  </si>
+  <si>
+    <t>Color grading addition</t>
+  </si>
+  <si>
+    <t>Fixes</t>
+  </si>
+  <si>
+    <t>Ar Spawn Object</t>
+  </si>
+  <si>
+    <t>Voetstappen gebruik maken van GPS</t>
   </si>
 </sst>
 </file>
@@ -708,18 +801,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF031C3-D4FF-4FB5-9E98-A7E574A3A60A}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="24.109375" customWidth="1"/>
+    <col min="1" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
@@ -739,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -759,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44971</v>
       </c>
@@ -770,7 +863,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44972</v>
       </c>
@@ -781,7 +874,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44973</v>
       </c>
@@ -792,7 +885,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44974</v>
       </c>
@@ -803,7 +896,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44975</v>
       </c>
@@ -814,7 +907,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44976</v>
       </c>
@@ -825,7 +918,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44977</v>
       </c>
@@ -836,7 +929,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44978</v>
       </c>
@@ -847,7 +940,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44979</v>
       </c>
@@ -858,7 +951,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44980</v>
       </c>
@@ -869,7 +962,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44981</v>
       </c>
@@ -880,7 +973,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>44991</v>
       </c>
@@ -891,7 +984,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>44992</v>
       </c>
@@ -902,7 +995,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>44993</v>
       </c>
@@ -913,7 +1006,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>44994</v>
       </c>
@@ -924,7 +1017,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>44995</v>
       </c>
@@ -934,6 +1027,83 @@
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>44996</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>44998</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44999</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45002</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -945,17 +1115,17 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="7" width="43.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1148,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44971</v>
       </c>
@@ -1002,7 +1172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44972</v>
       </c>
@@ -1025,7 +1195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44973</v>
       </c>
@@ -1048,7 +1218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44974</v>
       </c>
@@ -1071,7 +1241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44975</v>
       </c>
@@ -1082,7 +1252,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44976</v>
       </c>
@@ -1093,7 +1263,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44977</v>
       </c>
@@ -1116,7 +1286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44978</v>
       </c>
@@ -1131,7 +1301,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44979</v>
       </c>
@@ -1154,7 +1324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44980</v>
       </c>
@@ -1170,35 +1340,437 @@
       <c r="E12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44981</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>44983</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44984</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>44985</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>44986</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>44987</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>44988</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>44989</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>44990</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>44991</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>44992</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>44993</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>44994</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>44995</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>44996</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>44997</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>44998</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>44999</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>45002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1213,13 +1785,13 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
@@ -1227,7 +1799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>44980</v>
       </c>
@@ -1244,7 +1816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>51</v>
@@ -1253,7 +1825,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>52</v>
@@ -1262,121 +1834,121 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="F5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
     </row>
   </sheetData>
@@ -1392,54 +1964,54 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1453,16 +2025,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92FD14C-C1E5-4A26-AA29-40029CD9C573}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="25.88671875" customWidth="1"/>
+    <col min="1" max="8" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +2054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -1505,9 +2077,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
